--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/30/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/30/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01301301301301301</v>
+        <v>0.4524452445244525</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1083.083083083083</v>
+        <v>1831.263126312631</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04984984984984985</v>
+        <v>0.07366736673667366</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08208208208208208</v>
+        <v>0.2801280128012801</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>414.4144144144145</v>
+        <v>1632.123212321232</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>592.5925925925926</v>
+        <v>765.4365436543654</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>666.6666666666667</v>
+        <v>802.3780378037803</v>
       </c>
     </row>
   </sheetData>
